--- a/12_06_2023/hasil_pengajuan_tandatangan.xlsx
+++ b/12_06_2023/hasil_pengajuan_tandatangan.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Lembar1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -19,7 +19,6 @@
   <fonts count="1">
     <font>
       <name val="Calibri"/>
-      <charset val="1"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -125,7 +124,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -425,299 +424,270 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>kk</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>kk</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>909</t>
+          <t>kk</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>090</t>
+          <t>kk</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>090</t>
+          <t>kk</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>kk</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>kk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>kk</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>kk</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>909</t>
+          <t>kk</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>090</t>
+          <t>kk</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>090</t>
+          <t>kk</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>kk</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>kk</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>deo</t>
+          <t>dd</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>main</t>
+          <t>dd</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>tangan</t>
+          <t>dd</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>lima</t>
+          <t>dd</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>jari</t>
+          <t>dd</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>crot</t>
+          <t>dd</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>dd</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Deo</t>
+          <t>sds</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>coli bersama</t>
+          <t>d</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>besok bgt</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">coli </t>
+          <t>sd</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>danu</t>
+          <t>s</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>cocol</t>
+          <t>d</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>sds</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>kaka</t>
+          <t>ad</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>kaka</t>
+          <t>ad</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>kaka</t>
+          <t>ad</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>kaka</t>
+          <t>ad</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>akak</t>
+          <t>af</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>akka</t>
+          <t>ad</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>af</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>kaka</t>
+          <t>adas</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>kaka</t>
+          <t>afa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>kaka</t>
+          <t>gads</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>kak</t>
+          <t>gads</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>kak</t>
+          <t>gdf</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>kaak</t>
+          <t>sds</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>acc</t>
+          <t>af</t>
         </is>
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>kk</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>kk</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>kk</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>kk</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>kk</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>kk</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>ACC</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>deo</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>deo</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>deo</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>deo</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>deo</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>deo</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>acc</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>&amp; C:/Users/helmi/AppData/Local/Programs/Python/Python311/python.exe "c:/Users/Tugas 2/coba3.py"</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>&amp; C:/Users/helmi/AppData/Local/Programs/Python/Python311/python.exe "c:/Users/Tugas 2/coba3.py"</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>&amp; C:/Users/helmi/AppData/Local/Programs/Python/Python311/python.exe "c:/Users/Tugas 2/coba3.py"</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>&amp; C:/Users/helmi/AppData/Local/Programs/Python/Python311/python.exe "c:/Users/Tugas 2/coba3.py"</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>&amp; C:/Users/helmi/AppData/Local/Programs/Python/Python311/python.exe "c:/Users/Tugas 2/coba3.py"</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>&amp; C:/Users/helmi/AppData/Local/Programs/Python/Python311/python.exe "c:/Users/Tugas 2/coba3.py"</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>ACC</t>
+          <t>kk</t>
         </is>
       </c>
     </row>

--- a/12_06_2023/hasil_pengajuan_tandatangan.xlsx
+++ b/12_06_2023/hasil_pengajuan_tandatangan.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,7 +505,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>acc</t>
+          <t>acccc</t>
         </is>
       </c>
     </row>
@@ -950,6 +950,445 @@
       <c r="G14" t="inlineStr">
         <is>
           <t>acc</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>&amp; C:/Users/helmi/AppData/Local/Programs/Python/Python311/python.exe "c:/Users/Tugas 2/kelompok08_projectteam/12_06_2023/tes.py"</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>&amp; C:/Users/helmi/AppData/Local/Programs/Python/Python311/python.exe "c:/Users/Tugas 2/kelompok08_projectteam/12_06_2023/tes.py"</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>&amp; C:/Users/helmi/AppData/Local/Programs/Python/Python311/python.exe "c:/Users/Tugas 2/kelompok08_projectteam/12_06_2023/tes.py"</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>&amp; C:/Users/helmi/AppData/Local/Programs/Python/Python311/python.exe "c:/Users/Tugas 2/kelompok08_projectteam/12_06_2023/tes.py"</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>&amp; C:/Users/helmi/AppData/Local/Programs/Python/Python311/python.exe "c:/Users/Tugas 2/kelompok08_projectteam/12_06_2023/tes.py"</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>&amp; C:/Users/helmi/AppData/Local/Programs/Python/Python311/python.exe "c:/Users/Tugas 2/kelompok08_projectteam/12_06_2023/tes.py"</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>&amp; C:/Users/helmi/AppData/Local/Programs/Python/Python311/python.exe "c:/Users/Tugas 2/kelompok08_projectteam/12_06_2023/tes.py"</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Hanif</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>main</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>besok</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>senang2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>lobes</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>mainbareng</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Hanif putra</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>main bareng</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>besok  bgtt</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>senang2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>lobes</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>mainbareng</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>blm acc</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>&amp; C:/Users/helmi/AppData/Local/Programs/Python/Python311/python.exe "c:/Users/Tugas 2/kelompok08_projectteam/12_06_2023/tes.py"</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>&amp; C:/Users/helmi/AppData/Local/Programs/Python/Python311/python.exe "c:/Users/Tugas 2/kelompok08_projectteam/12_06_2023/tes.py"</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>&amp; C:/Users/helmi/AppData/Local/Programs/Python/Python311/python.exe "c:/Users/Tugas 2/kelompok08_projectteam/12_06_2023/tes.py"</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>&amp; C:/Users/helmi/AppData/Local/Programs/Python/Python311/python.exe "c:/Users/Tugas 2/kelompok08_projectteam/12_06_2023/tes.py"</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>&amp; C:/Users/helmi/AppData/Local/Programs/Python/Python311/python.exe "c:/Users/Tugas 2/kelompok08_projectteam/12_06_2023/tes.py"</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>&amp; C:/Users/helmi/AppData/Local/Programs/Python/Python311/python.exe "c:/Users/Tugas 2/kelompok08_projectteam/12_06_2023/tes.py"</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>&amp; C:/Users/helmi/AppData/Local/Programs/Python/Python311/python.exe "c:/Users/Tugas 2/kelompok08_projectteam/12_06_2023/tes.py"</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Deo</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Main2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>besok</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ngapain kek</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>lobes</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>main2</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>irvi</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>sharing mbkm</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>besk bgt</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>seminar</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>danu</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Proposal....</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>ACC</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>fdag</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>agagas</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>afag</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>afad</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Toalkk</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>qweq</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>rq</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>er</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>tqe</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>wdg</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>dga</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>adfa</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>gadga</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>adgdg</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>afa</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>afsa</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>ga</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>afasdf</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>agad</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>adgadh</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>adgag</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>adgadg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>aadg</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>adfa</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Deo</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Makan</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>6/16/23</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>makan kenyang</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Lobes</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>proposal</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>BLM acc</t>
         </is>
       </c>
     </row>

--- a/12_06_2023/hasil_pengajuan_tandatangan.xlsx
+++ b/12_06_2023/hasil_pengajuan_tandatangan.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,12 +511,12 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>acc cok</t>
+          <t>acacac</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>ass hole</t>
+          <t>tolak</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,11 @@
           <t>dd</t>
         </is>
       </c>
-      <c r="H3" s="2" t="n"/>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>baruu algi</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -670,7 +674,11 @@
           <t>af</t>
         </is>
       </c>
-      <c r="H6" s="2" t="n"/>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>ACC</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="19.5" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -743,7 +751,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>k</t>
+          <t>MASUKKK</t>
         </is>
       </c>
       <c r="H8" s="2" t="n"/>
@@ -1823,6 +1831,80 @@
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>helmi</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>asistensi</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>6/17/23</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>asis sebelum deadline</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>danu</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>yaa</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>ACC</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>deo</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>inau</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>6/30/23</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>inau</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>danu</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Ya</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>accc</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
